--- a/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="259">
   <si>
     <t>Asignatura</t>
   </si>
@@ -578,9 +578,6 @@
     <t>Actividad que permite realizar cálculos numéricos</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: composición del universo</t>
-  </si>
-  <si>
     <t>Actividad que permite interiorizar los conceptos vistos en la composición del universo</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
     <t>El pantallazo N° 6 al final de la instrucción agregar “y exprésalo de forma escrita”.en el pantallazo que inicia con Imagina</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los componentes del universo</t>
-  </si>
-  <si>
     <t>Actividades sobre los componentes del universo</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
     <t>Descripción general del universo, el Sol y del sistema solar y la exploración del universo</t>
   </si>
   <si>
-    <t>Los programas espaciales</t>
-  </si>
-  <si>
     <t>Actividades planteadas para trabajar sobre los programas espaciales</t>
   </si>
   <si>
@@ -794,9 +785,6 @@
     <t xml:space="preserve">Completa un texto sobre el universo </t>
   </si>
   <si>
-    <t>Banco de actividades: el universo y el sistema solar</t>
-  </si>
-  <si>
     <t>Motor que incluye preguntas de respuesta abierta del tema El universo y el sistema solar</t>
   </si>
   <si>
@@ -807,6 +795,12 @@
   </si>
   <si>
     <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Composición del universo</t>
+  </si>
+  <si>
+    <t>Banco de actividades: El universo y el sistema solar</t>
   </si>
 </sst>
 </file>
@@ -1154,16 +1148,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,27 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,8 +1528,8 @@
   <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,94 +1557,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="72" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="78"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="87"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1784,7 +1778,7 @@
         <v>140</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
@@ -1845,11 +1839,11 @@
         <v>140</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H6" s="60">
         <v>4</v>
@@ -1858,7 +1852,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K6" s="63" t="s">
         <v>20</v>
@@ -1871,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P6" s="58" t="s">
         <v>20</v>
@@ -1896,7 +1890,7 @@
       <c r="A7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -1932,7 +1926,7 @@
         <v>52</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>19</v>
@@ -2211,7 +2205,7 @@
         <v>169</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
@@ -2220,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2244,7 +2238,7 @@
         <v>149</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>151</v>
@@ -2490,7 +2484,7 @@
         <v>128</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>129</v>
@@ -2514,7 +2508,7 @@
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2523,7 +2517,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K17" s="63" t="s">
         <v>20</v>
@@ -2536,7 +2530,7 @@
         <v>32</v>
       </c>
       <c r="O17" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P17" s="58" t="s">
         <v>20</v>
@@ -2551,7 +2545,7 @@
         <v>128</v>
       </c>
       <c r="T17" s="68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U17" s="66" t="s">
         <v>129</v>
@@ -2561,7 +2555,7 @@
       <c r="A18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C18" s="41" t="s">
@@ -2575,7 +2569,7 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="45" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="H18" s="46">
         <v>16</v>
@@ -2584,7 +2578,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K18" s="48" t="s">
         <v>19</v>
@@ -2597,7 +2591,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2612,7 +2606,7 @@
         <v>140</v>
       </c>
       <c r="T18" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U18" s="51" t="s">
         <v>165</v>
@@ -2629,12 +2623,12 @@
         <v>140</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="25"/>
       <c r="G19" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2643,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>19</v>
@@ -2667,7 +2661,7 @@
         <v>140</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U19" s="37" t="s">
         <v>165</v>
@@ -2684,14 +2678,14 @@
         <v>140</v>
       </c>
       <c r="D20" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="21">
         <v>18</v>
@@ -2700,7 +2694,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2724,7 +2718,7 @@
         <v>140</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>165</v>
@@ -2741,14 +2735,14 @@
         <v>140</v>
       </c>
       <c r="D21" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
@@ -2757,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2781,7 +2775,7 @@
         <v>140</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>165</v>
@@ -2798,14 +2792,14 @@
         <v>140</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2814,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2840,7 +2834,7 @@
         <v>128</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>129</v>
@@ -2857,14 +2851,14 @@
         <v>140</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
@@ -2873,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2897,7 +2891,7 @@
         <v>140</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>165</v>
@@ -2914,14 +2908,14 @@
         <v>140</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
@@ -2930,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2954,7 +2948,7 @@
         <v>140</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>165</v>
@@ -2971,14 +2965,14 @@
         <v>140</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
@@ -2987,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -3011,7 +3005,7 @@
         <v>140</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>165</v>
@@ -3028,16 +3022,16 @@
         <v>140</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" s="21">
         <v>24</v>
@@ -3046,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3072,7 +3066,7 @@
         <v>128</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>129</v>
@@ -3089,16 +3083,16 @@
         <v>140</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
@@ -3107,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K27" s="63" t="s">
         <v>20</v>
@@ -3133,7 +3127,7 @@
         <v>128</v>
       </c>
       <c r="T27" s="68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U27" s="66" t="s">
         <v>129</v>
@@ -3143,14 +3137,14 @@
       <c r="A28" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>140</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>122</v>
@@ -3166,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K28" s="48" t="s">
         <v>19</v>
@@ -3179,7 +3173,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P28" s="44" t="s">
         <v>19</v>
@@ -3194,7 +3188,7 @@
         <v>149</v>
       </c>
       <c r="T28" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U28" s="51" t="s">
         <v>151</v>
@@ -3211,12 +3205,12 @@
         <v>140</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="25"/>
       <c r="G29" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
@@ -3225,7 +3219,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>19</v>
@@ -3249,7 +3243,7 @@
         <v>149</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>151</v>
@@ -3266,14 +3260,14 @@
         <v>140</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3282,7 +3276,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>19</v>
@@ -3313,14 +3307,14 @@
         <v>140</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3329,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
@@ -3353,7 +3347,7 @@
         <v>149</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>151</v>
@@ -3370,14 +3364,14 @@
         <v>140</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3386,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>19</v>
@@ -3410,7 +3404,7 @@
         <v>149</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>151</v>
@@ -3420,14 +3414,14 @@
       <c r="A33" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E33" s="43" t="s">
         <v>122</v>
@@ -3443,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K33" s="48" t="s">
         <v>19</v>
@@ -3456,7 +3450,7 @@
         <v>52</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P33" s="44" t="s">
         <v>19</v>
@@ -3471,7 +3465,7 @@
         <v>149</v>
       </c>
       <c r="T33" s="53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="U33" s="51" t="s">
         <v>151</v>
@@ -3493,7 +3487,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3502,7 +3496,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3512,7 +3506,7 @@
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9" t="s">
@@ -3528,7 +3522,7 @@
         <v>140</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>165</v>
@@ -3550,7 +3544,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3559,7 +3553,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3569,7 +3563,7 @@
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9" t="s">
@@ -3585,7 +3579,7 @@
         <v>140</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>165</v>
@@ -3607,7 +3601,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3616,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3626,7 +3620,7 @@
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
@@ -3642,7 +3636,7 @@
         <v>149</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U36" s="10" t="s">
         <v>151</v>
@@ -3673,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3718,7 +3712,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3766,7 +3760,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H39" s="21">
         <v>37</v>
@@ -3775,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>20</v>
@@ -4817,12 +4811,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4837,6 +4825,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MIS DOCUMENTOS\Desktop\CienciasNaturales\fuentes\contenidos\grado07\guion12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado07\guion12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1151,34 +1151,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1200,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1527,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,94 +1557,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="87" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="85"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="88"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4811,6 +4811,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4825,12 +4831,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion12/ES_CN_07_12_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado07\guion12\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
@@ -1151,16 +1146,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,24 +1213,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,7 +1276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,7 +1311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1527,9 +1522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K36"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,8 +1542,8 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1557,94 +1552,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="72" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="87" t="s">
+      <c r="S1" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="72" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="79"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="88"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2008,7 +2003,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -4811,12 +4806,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4831,6 +4820,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
